--- a/medicine/Enfance/Pour_un_sourire_d'enfant/Pour_un_sourire_d'enfant.xlsx
+++ b/medicine/Enfance/Pour_un_sourire_d'enfant/Pour_un_sourire_d'enfant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pour_un_sourire_d%27enfant</t>
+          <t>Pour_un_sourire_d'enfant</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour un Sourire d'Enfant (PSE) est une organisation non gouvernementale (ONG) française créée en mars 1996 par Christian et Marie-France des Pallières. 
 Elle a pour objectif d'aider les enfants défavorisés et déscolarisés au Cambodge en les menant de la misère à un métier notamment par le biais de parrainages.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pour_un_sourire_d%27enfant</t>
+          <t>Pour_un_sourire_d'enfant</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1995, Christian[1] et Marie-France[2] des Pallières, en mission humanitaire au Cambodge, découvrent l’horreur de la décharge de Phnom Penh (aujourd’hui fermée). Des centaines d’enfants y remuent jour et nuit les ordures pour trouver des déchets à revendre, dans des conditions sanitaires misérables. Pour le couple français, c’est le choc : ils décident immédiatement de « faire quelque chose ». 
-Au départ, ils construisent une simple paillote pour distribuer des repas sur la décharge[3]. Mais très vite, les Des Pallières s’aperçoivent qu’ils sont dépassés par la situation, et que les besoins sont immenses. Ils décident alors de rentrer en France pour mobiliser leur entourage et lever des fonds suffisants pour mener une action de plus grande envergure. Cette tournée (la première d’une longue série qui se poursuit encore aujourd’hui) est un succès : Christian et Marie-France rentrent à Phnom Penh avec suffisamment d’argent pour construire un établissement, et l’aventure PSE peut commencer.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1995, Christian et Marie-France des Pallières, en mission humanitaire au Cambodge, découvrent l’horreur de la décharge de Phnom Penh (aujourd’hui fermée). Des centaines d’enfants y remuent jour et nuit les ordures pour trouver des déchets à revendre, dans des conditions sanitaires misérables. Pour le couple français, c’est le choc : ils décident immédiatement de « faire quelque chose ». 
+Au départ, ils construisent une simple paillote pour distribuer des repas sur la décharge. Mais très vite, les Des Pallières s’aperçoivent qu’ils sont dépassés par la situation, et que les besoins sont immenses. Ils décident alors de rentrer en France pour mobiliser leur entourage et lever des fonds suffisants pour mener une action de plus grande envergure. Cette tournée (la première d’une longue série qui se poursuit encore aujourd’hui) est un succès : Christian et Marie-France rentrent à Phnom Penh avec suffisamment d’argent pour construire un établissement, et l’aventure PSE peut commencer.
 Depuis ce jour, l’association a redonné le sourire à plus de 12 000 enfants. En prenant en charge l’intégralité de leurs besoins à travers différents programmes (éducation et formation à un métier mais aussi santé, nutrition, protection, hébergement, aide aux familles…), elle leur permet de retrouver un avenir digne.
 </t>
         </is>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pour_un_sourire_d%27enfant</t>
+          <t>Pour_un_sourire_d'enfant</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Actions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L’association intervient auprès des enfants les plus en détresse (plus de 6 000 chaque année) à travers six programmes principaux :
 Nourrir : l'association a mis en place dès ses débuts des repas quotidiens.
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pour_un_sourire_d%27enfant</t>
+          <t>Pour_un_sourire_d'enfant</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Organisation et financement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour financer ses programmes, l’association s’appuie essentiellement sur les dons et les parrainages (qui couvrent 70 % du coût des missions sociales), complétés par le mécénat. Ses ressources sont essentiellement privées.
 Elle compte 400 bénévoles en France et dans le monde et seulement 6 salariés en France, ce qui permet de limiter les frais de fonctionnement qui sont seulement de 10 % (frais généraux et frais de collecte). Sur le terrain, à Phnom Penh, ce sont plus de 600 salariés, dont 95 % de cambodgiens, qui gèrent les différents programmes de l’association : une véritable « machine à détruire la misère » !
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pour_un_sourire_d%27enfant</t>
+          <t>Pour_un_sourire_d'enfant</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,11 +632,13 @@
           <t>Le documentaire Les Pépites</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En octobre 2016 est sorti le documentaire Les Pépites[4],[5] de Xavier de Lauzanne, qui retrace le parcours de l'association[6],[7],[8]. Sa sortie est intervenue peu après la mort du fondateur de l’association Christian des Pallières le 24 septembre, à Phnom Penh. Ce documentaire a enregistré près de 200 000 entrées et reçu un excellent accueil critique, aussi bien dans la presse que par les spectateurs.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En octobre 2016 est sorti le documentaire Les Pépites, de Xavier de Lauzanne, qui retrace le parcours de l'association. Sa sortie est intervenue peu après la mort du fondateur de l’association Christian des Pallières le 24 septembre, à Phnom Penh. Ce documentaire a enregistré près de 200 000 entrées et reçu un excellent accueil critique, aussi bien dans la presse que par les spectateurs.
 En 2002, le même réalisateur avait déjà coréalisé, pour France 5, un documentaire sur l'association intitulé Pour un sourire d’enfant.
-En 2018 les Éditions du Rocher soutiennent l'association PSE en créant un agenda 2018[9] dont l'édition est parrainée par Patrice Leconte et Philippe Geluck.
+En 2018 les Éditions du Rocher soutiennent l'association PSE en créant un agenda 2018 dont l'édition est parrainée par Patrice Leconte et Philippe Geluck.
 En 2019, le film-documentaire est élu "Meilleur documentaire de la décennie 2010-2019" par le site Allociné.
 </t>
         </is>
@@ -630,7 +650,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pour_un_sourire_d%27enfant</t>
+          <t>Pour_un_sourire_d'enfant</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -648,9 +668,11 @@
           <t>Le livre Pour un Sourire d'Enfant</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2021, Marie-France des Pallières, fondatrice de l'association, publie le livre "Pour un Sourire d'Enfant"[10] aux éditions Albin Michel. C'est le récit bouleversant, au fil des jours, d'une aventure exceptionnelle... initiée par un couple ordinaire. C'est cette épopée extraordinaire, que racontent, à deux voix, Marie-France et Christian des Pallières, à travers leurs souvenirs et les pages du journal qu'ils ont tenu depuis 1996.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2021, Marie-France des Pallières, fondatrice de l'association, publie le livre "Pour un Sourire d'Enfant" aux éditions Albin Michel. C'est le récit bouleversant, au fil des jours, d'une aventure exceptionnelle... initiée par un couple ordinaire. C'est cette épopée extraordinaire, que racontent, à deux voix, Marie-France et Christian des Pallières, à travers leurs souvenirs et les pages du journal qu'ils ont tenu depuis 1996.
 C'est le journaliste et animateur Frédéric Lopez qui en rédige la préface.
 </t>
         </is>
